--- a/BackTest/2019-10-26 BackTest MIX.xlsx
+++ b/BackTest/2019-10-26 BackTest MIX.xlsx
@@ -766,20 +766,14 @@
         <v>8.440000000000007</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>8.42</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -807,20 +801,14 @@
         <v>8.410000000000005</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>8.390000000000001</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -848,20 +836,14 @@
         <v>8.418000000000006</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>8.43</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -889,20 +871,14 @@
         <v>8.432000000000006</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>8.460000000000001</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -930,20 +906,14 @@
         <v>8.450000000000006</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>8.49</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -971,20 +941,14 @@
         <v>8.474000000000006</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>8.48</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1012,20 +976,14 @@
         <v>8.500000000000005</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>8.52</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1064,7 +1022,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1100,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>8.57</v>
+        <v>8.56</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
@@ -1141,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>8.529999999999999</v>
+        <v>8.51</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
@@ -1176,14 +1134,12 @@
         <v>8.550000000000006</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>8.609999999999999</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1217,14 +1173,12 @@
         <v>8.564000000000005</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>8.609999999999999</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1258,14 +1212,12 @@
         <v>8.572000000000006</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>8.609999999999999</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -2667,18 +2619,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2706,15 +2656,11 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2749,11 +2695,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2788,11 +2730,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2765,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2866,11 +2800,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2905,11 +2835,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2944,11 +2870,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2983,11 +2905,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3022,11 +2940,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3061,11 +2975,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3100,11 +3010,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3139,11 +3045,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3178,11 +3080,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3217,11 +3115,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3150,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3295,11 +3185,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3334,11 +3220,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3373,11 +3255,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3412,11 +3290,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3451,11 +3325,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3490,11 +3360,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3529,11 +3395,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3568,11 +3430,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3607,11 +3465,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3646,11 +3500,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3535,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3724,11 +3570,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3763,11 +3605,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3802,11 +3640,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3841,11 +3675,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3880,11 +3710,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3919,11 +3745,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3958,11 +3780,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3993,16 +3811,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4030,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4065,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -6197,14 +6013,20 @@
         <v>8.640000000000006</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>8.6</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6232,14 +6054,20 @@
         <v>8.670000000000005</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>8.69</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6267,14 +6095,20 @@
         <v>8.670000000000005</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>8.720000000000001</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6309,7 +6143,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6344,7 +6182,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6379,7 +6221,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6407,14 +6253,20 @@
         <v>8.754000000000008</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>8.75</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6449,7 +6301,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6484,7 +6340,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6519,7 +6379,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6554,7 +6418,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6589,7 +6457,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6624,7 +6496,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +6535,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6694,7 +6574,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6729,7 +6613,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6764,7 +6652,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6799,7 +6691,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6834,7 +6730,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6869,7 +6769,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6904,7 +6808,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6939,7 +6847,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6974,7 +6886,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7009,7 +6925,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7044,7 +6964,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7079,7 +7003,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7114,7 +7042,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7149,7 +7081,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7184,7 +7120,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7219,7 +7159,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7254,7 +7198,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7289,7 +7237,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7324,7 +7276,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7359,7 +7315,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7394,7 +7354,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7429,7 +7393,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7464,7 +7432,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7499,7 +7471,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7534,7 +7510,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7569,7 +7549,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7604,7 +7588,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7639,7 +7627,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7674,7 +7666,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7709,7 +7705,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7744,7 +7744,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7779,7 +7783,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +7822,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7849,7 +7861,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7884,7 +7900,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7919,7 +7939,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7954,7 +7978,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7989,7 +8017,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8024,7 +8056,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8059,7 +8095,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8094,7 +8134,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8129,7 +8173,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8164,7 +8212,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8199,7 +8251,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8234,7 +8290,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8269,7 +8329,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8304,7 +8368,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8339,7 +8407,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8374,7 +8446,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8409,7 +8485,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8444,7 +8524,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8479,7 +8563,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8514,7 +8602,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8549,7 +8641,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8584,7 +8680,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8619,7 +8719,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8654,7 +8758,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8689,7 +8797,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8724,7 +8836,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8759,7 +8875,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8794,7 +8914,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8829,7 +8953,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8864,7 +8992,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8899,7 +9031,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8934,7 +9070,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9109,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9004,7 +9148,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9039,7 +9187,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9074,7 +9226,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9109,7 +9265,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9144,7 +9304,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9179,7 +9343,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9214,7 +9382,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9249,7 +9421,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9284,7 +9460,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9319,7 +9499,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9354,7 +9538,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9389,7 +9577,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9424,7 +9616,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9459,7 +9655,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9494,7 +9694,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9522,14 +9726,20 @@
         <v>8.740000000000014</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>8.699999999999999</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9557,14 +9767,20 @@
         <v>8.742000000000015</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>8.789999999999999</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9592,14 +9808,20 @@
         <v>8.752000000000013</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>8.800000000000001</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9634,7 +9856,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9669,7 +9895,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9704,7 +9934,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9739,7 +9973,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9774,7 +10012,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9809,7 +10051,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9844,7 +10090,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9879,7 +10129,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9914,7 +10168,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9949,7 +10207,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9984,7 +10246,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10019,7 +10285,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10054,7 +10324,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10089,7 +10363,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +10402,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10159,7 +10441,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10194,7 +10480,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10229,7 +10519,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10264,7 +10558,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10299,7 +10597,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10334,7 +10636,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10369,7 +10675,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10404,7 +10714,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10439,7 +10753,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10474,7 +10792,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10509,7 +10831,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10544,7 +10870,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10579,7 +10909,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10614,7 +10948,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10649,7 +10987,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10684,7 +11026,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10719,7 +11065,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10754,7 +11104,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10789,7 +11143,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10824,7 +11182,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10859,7 +11221,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10894,7 +11260,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10929,7 +11299,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10964,7 +11338,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10999,7 +11377,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11034,7 +11416,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11069,7 +11455,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11104,7 +11494,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11139,7 +11533,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11174,7 +11572,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11209,7 +11611,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11244,7 +11650,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11689,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11314,7 +11728,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11349,7 +11767,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11384,7 +11806,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11419,7 +11845,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11454,7 +11884,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11489,7 +11923,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11524,7 +11962,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11559,7 +12001,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11594,7 +12040,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11629,7 +12079,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11664,7 +12118,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11699,7 +12157,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11734,7 +12196,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11769,7 +12235,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11804,7 +12274,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11839,7 +12313,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11874,7 +12352,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11909,7 +12391,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11944,7 +12430,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11979,7 +12469,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12014,7 +12508,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12049,7 +12547,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12084,7 +12586,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12119,7 +12625,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12154,7 +12664,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12189,7 +12703,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12224,7 +12742,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12259,7 +12781,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12294,7 +12820,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12329,7 +12859,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12364,7 +12898,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12399,7 +12937,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +12976,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12469,7 +13015,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12504,7 +13054,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12539,7 +13093,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12574,7 +13132,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12609,7 +13171,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12644,7 +13210,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12679,7 +13249,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12714,7 +13288,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12749,7 +13327,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12784,7 +13366,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12819,7 +13405,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12854,7 +13444,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12889,7 +13483,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12924,7 +13522,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12959,7 +13561,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12994,7 +13600,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13029,7 +13639,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13064,7 +13678,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13099,7 +13717,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13134,7 +13756,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13169,7 +13795,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13204,7 +13834,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13239,7 +13873,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13274,7 +13912,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13309,7 +13951,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13344,7 +13990,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13379,7 +14029,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13414,7 +14068,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13449,7 +14107,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13484,7 +14146,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13519,7 +14185,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13554,7 +14224,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13589,7 +14263,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13624,7 +14302,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13659,7 +14341,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13694,7 +14380,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13729,7 +14419,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13764,7 +14458,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13799,7 +14497,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13834,7 +14536,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13869,7 +14575,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13904,7 +14614,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13939,7 +14653,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13974,7 +14692,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14009,7 +14731,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14044,7 +14770,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14079,7 +14809,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14114,7 +14848,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14149,7 +14887,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14184,7 +14926,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14219,7 +14965,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14254,7 +15004,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14289,7 +15043,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14324,7 +15082,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14359,7 +15121,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14394,7 +15160,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14429,7 +15199,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14464,7 +15238,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14499,7 +15277,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14534,7 +15316,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14569,7 +15355,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14604,7 +15394,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14639,7 +15433,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14674,7 +15472,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14709,7 +15511,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +15550,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14779,7 +15589,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14814,7 +15628,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14849,7 +15667,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14884,7 +15706,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14919,7 +15745,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14954,7 +15784,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14989,7 +15823,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15024,7 +15862,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15059,7 +15901,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15094,7 +15940,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15129,7 +15979,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15164,7 +16018,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15199,7 +16057,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15234,7 +16096,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15269,7 +16135,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15304,7 +16174,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15339,7 +16213,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15374,7 +16252,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15409,7 +16291,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15444,7 +16330,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15479,7 +16369,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15514,7 +16408,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15549,7 +16447,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15584,7 +16486,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15619,7 +16525,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15654,7 +16564,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15689,7 +16603,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15724,7 +16642,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15759,7 +16681,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15794,7 +16720,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15829,7 +16759,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15864,7 +16798,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15899,7 +16837,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -15934,7 +16876,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -15969,7 +16915,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16004,7 +16954,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16039,7 +16993,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16074,7 +17032,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16109,7 +17071,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16144,7 +17110,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16179,7 +17149,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16214,7 +17188,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16249,7 +17227,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16284,7 +17266,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16319,7 +17305,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16354,7 +17344,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16389,7 +17383,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16424,7 +17422,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16459,7 +17461,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16494,7 +17500,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16529,7 +17539,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16564,7 +17578,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16599,7 +17617,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16634,7 +17656,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16669,7 +17695,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16704,7 +17734,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16739,7 +17773,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -16774,7 +17812,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -16809,7 +17851,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16844,7 +17890,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -16879,7 +17929,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -16914,7 +17968,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -16949,7 +18007,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -16984,7 +18046,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17019,7 +18085,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17054,7 +18124,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17089,7 +18163,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17124,7 +18202,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17159,7 +18241,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17194,7 +18280,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17229,7 +18319,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17264,7 +18358,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17299,7 +18397,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17334,7 +18436,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17369,7 +18475,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17404,7 +18514,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17439,7 +18553,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17474,7 +18592,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17509,7 +18631,11 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17544,7 +18670,11 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17579,7 +18709,11 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17614,7 +18748,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17649,7 +18787,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17684,7 +18826,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17719,7 +18865,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -17754,7 +18904,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -17789,7 +18943,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -17824,7 +18982,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -17859,7 +19021,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -17894,7 +19060,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17929,7 +19099,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -17964,7 +19138,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -17999,7 +19177,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18034,7 +19216,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18069,7 +19255,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18104,7 +19294,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18139,7 +19333,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18174,7 +19372,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18209,7 +19411,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18244,7 +19450,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18279,7 +19489,11 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18314,7 +19528,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18349,7 +19567,11 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18384,7 +19606,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18419,7 +19645,11 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18454,7 +19684,11 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18489,7 +19723,11 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18524,7 +19762,11 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18559,7 +19801,11 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18594,7 +19840,11 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18629,7 +19879,11 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18664,7 +19918,11 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18699,7 +19957,11 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -18734,7 +19996,11 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -18769,7 +20035,11 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -18804,7 +20074,11 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -18839,7 +20113,11 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -18874,7 +20152,11 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -18909,7 +20191,11 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -18944,7 +20230,11 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -18979,7 +20269,11 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19014,7 +20308,11 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19049,7 +20347,11 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19084,7 +20386,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19119,7 +20425,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19154,7 +20464,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19189,7 +20503,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19224,7 +20542,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19259,7 +20581,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19294,7 +20620,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19329,7 +20659,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19364,7 +20698,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19399,7 +20737,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19434,7 +20776,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19469,7 +20815,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19504,7 +20854,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19539,7 +20893,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19574,7 +20932,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19609,7 +20971,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19644,7 +21010,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19679,7 +21049,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19714,7 +21088,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19749,7 +21127,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19784,7 +21166,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19819,7 +21205,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19854,7 +21244,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19889,7 +21283,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19924,7 +21322,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19959,7 +21361,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -19994,7 +21400,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20029,7 +21439,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20064,7 +21478,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20099,7 +21517,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20134,7 +21556,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20169,7 +21595,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20204,7 +21634,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20239,7 +21673,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20274,7 +21712,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20309,7 +21751,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20344,7 +21790,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20379,7 +21829,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20414,7 +21868,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20449,7 +21907,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20484,7 +21946,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20519,7 +21985,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20554,7 +22024,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20589,7 +22063,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20624,7 +22102,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20659,7 +22141,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20694,7 +22180,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20729,7 +22219,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20764,7 +22258,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -20799,7 +22297,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -20834,7 +22336,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -20869,7 +22375,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -20904,7 +22414,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -20939,7 +22453,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -20974,7 +22492,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21009,7 +22531,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21044,7 +22570,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21079,7 +22609,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21114,7 +22648,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21149,7 +22687,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21184,7 +22726,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21219,7 +22765,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21254,7 +22804,11 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21289,7 +22843,11 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21324,7 +22882,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21359,7 +22921,11 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21394,7 +22960,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21429,7 +22999,11 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21464,7 +23038,11 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21499,7 +23077,11 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21534,7 +23116,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21569,7 +23155,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21604,7 +23194,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -21639,7 +23233,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -21674,7 +23272,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -21709,7 +23311,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -21744,7 +23350,11 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -21779,7 +23389,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -21814,7 +23428,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -21849,7 +23467,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -21884,7 +23506,11 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -21919,7 +23545,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -21954,7 +23584,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -21989,7 +23623,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22024,7 +23662,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22059,7 +23701,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22087,14 +23733,20 @@
         <v>8.778000000000024</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
       </c>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>8.800000000000001</v>
+      </c>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22122,14 +23774,20 @@
         <v>8.774000000000022</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
       </c>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>8.74</v>
+      </c>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -22157,14 +23815,20 @@
         <v>8.764000000000021</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
       </c>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>8.800000000000001</v>
+      </c>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -22199,7 +23863,11 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -22227,14 +23895,20 @@
         <v>8.77400000000002</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
       </c>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>8.779999999999999</v>
+      </c>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -22269,7 +23943,11 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -22304,7 +23982,11 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -22339,7 +24021,11 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22374,7 +24060,11 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -22409,7 +24099,11 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -22444,7 +24138,11 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -22479,7 +24177,11 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -22514,7 +24216,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -22549,7 +24255,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -22584,7 +24294,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -22619,7 +24333,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -22654,7 +24372,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -22689,7 +24411,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -22724,7 +24450,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -22759,7 +24489,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -22794,7 +24528,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -22829,7 +24567,11 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -22864,7 +24606,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -22899,7 +24645,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -22934,7 +24684,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -22969,7 +24723,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23004,7 +24762,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23039,7 +24801,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23074,7 +24840,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23109,7 +24879,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23144,7 +24918,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23179,7 +24957,11 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23214,7 +24996,11 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -23249,7 +25035,11 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -23284,7 +25074,11 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -23319,7 +25113,11 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -23354,7 +25152,11 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23389,7 +25191,11 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -23424,7 +25230,11 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -23459,7 +25269,11 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -23494,7 +25308,11 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -23529,7 +25347,11 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -23564,7 +25386,11 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -23599,7 +25425,11 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest MIX.xlsx
+++ b/BackTest/2019-10-26 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2077110.450115889</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2077110.450115889</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>8.369999999999999</v>
@@ -521,7 +521,7 @@
         <v>-2059263.998272845</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>8.369999999999999</v>
@@ -562,7 +562,7 @@
         <v>-2063393.672972845</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>8.41</v>
@@ -603,11 +603,19 @@
         <v>-2080525.142472845</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -636,15 +644,17 @@
         <v>-1803453.803772845</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>8.34</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -675,12 +685,14 @@
         <v>-1799558.916772845</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>8.369999999999999</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -714,10 +726,14 @@
         <v>-1800028.916772845</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -751,12 +767,14 @@
         <v>-1799528.916772845</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -790,12 +808,14 @@
         <v>-1799528.916772845</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>8.41</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -829,10 +849,14 @@
         <v>-1926976.329072845</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -866,10 +890,14 @@
         <v>-1923651.131372845</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -903,10 +931,14 @@
         <v>-1921782.960272845</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -940,10 +972,14 @@
         <v>-1892105.854772845</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -977,10 +1013,14 @@
         <v>-1892125.854772845</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1014,10 +1054,14 @@
         <v>-1928325.970972845</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1051,10 +1095,14 @@
         <v>-1928325.970972845</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1088,10 +1136,14 @@
         <v>-1927882.332472845</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1125,10 +1177,14 @@
         <v>-1927904.332472845</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1162,10 +1218,14 @@
         <v>-2021276.163072845</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1199,12 +1259,14 @@
         <v>-2182170.499472845</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>8.34</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1238,12 +1300,14 @@
         <v>-2651743.712572845</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>8.33</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1277,12 +1341,14 @@
         <v>-2651143.712572845</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>8.32</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1316,12 +1382,14 @@
         <v>-2651163.712572845</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>8.369999999999999</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1355,12 +1423,14 @@
         <v>-2578520.629972845</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>8.33</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1394,12 +1464,14 @@
         <v>-2495007.417975348</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>8.359999999999999</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1433,12 +1505,14 @@
         <v>-2459252.950426774</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>8.390000000000001</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1472,12 +1546,14 @@
         <v>-1984532.301626774</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>8.4</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1511,12 +1587,14 @@
         <v>-1983355.805156186</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>8.470000000000001</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1550,12 +1628,14 @@
         <v>-1983355.805156186</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>8.5</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1589,12 +1669,14 @@
         <v>-1904019.371656186</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>8.5</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1628,12 +1710,14 @@
         <v>-1974136.716326774</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>8.52</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1667,10 +1751,14 @@
         <v>-1974136.716326774</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1704,12 +1792,12 @@
         <v>-1972965.646069163</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1746,7 +1834,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1780,12 +1870,12 @@
         <v>-1972965.646069163</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1822,7 +1912,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1859,7 +1951,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1896,7 +1990,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1933,7 +2029,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1970,7 +2068,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2007,7 +2107,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2044,7 +2146,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2081,7 +2185,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2118,7 +2224,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2155,7 +2263,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2192,7 +2302,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2229,7 +2341,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2266,7 +2380,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2303,7 +2419,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2340,7 +2458,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2377,7 +2497,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2411,12 +2533,12 @@
         <v>-2014741.15636203</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2450,12 +2572,12 @@
         <v>-2409997.999307698</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2489,12 +2611,12 @@
         <v>-2409862.318707698</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2528,12 +2650,12 @@
         <v>-2363453.863591106</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2570,7 +2692,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2607,7 +2731,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2644,7 +2770,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2681,7 +2809,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2718,7 +2848,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2755,7 +2887,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2792,7 +2926,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2829,7 +2965,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2866,7 +3004,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2900,10 +3040,14 @@
         <v>-3639394.75676884</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2937,10 +3081,14 @@
         <v>-3626427.25676884</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="J68" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2974,10 +3122,14 @@
         <v>-3626427.25676884</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="J69" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3011,12 +3163,14 @@
         <v>-4074224.54506884</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>8.42</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3050,10 +3204,14 @@
         <v>-3916194.468168841</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="J71" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3087,12 +3245,14 @@
         <v>-3916173.468168841</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>8.41</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3126,10 +3286,14 @@
         <v>-3911173.468168841</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="J73" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3163,10 +3327,14 @@
         <v>-3847030.577468841</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="J74" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3200,10 +3368,14 @@
         <v>-3847030.577468841</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="J75" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3237,10 +3409,14 @@
         <v>-3847008.577468841</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="J76" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3274,10 +3450,14 @@
         <v>-3751346.211368841</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="J77" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3311,10 +3491,14 @@
         <v>-4118440.63636884</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="J78" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3348,10 +3532,14 @@
         <v>-4118174.907068841</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="J79" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3388,7 +3576,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3425,7 +3615,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3462,7 +3654,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3499,7 +3693,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,7 +3732,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3573,7 +3771,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3610,7 +3810,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3647,7 +3849,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3684,7 +3888,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3721,7 +3927,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3758,7 +3966,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3795,7 +4005,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3832,7 +4044,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3869,7 +4083,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3906,7 +4122,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3943,7 +4161,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3977,10 +4197,14 @@
         <v>-4104341.495023176</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J96" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4014,10 +4238,14 @@
         <v>-4104396.495023176</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="J97" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4051,10 +4279,14 @@
         <v>-4104440.495023176</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="J98" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4088,10 +4320,14 @@
         <v>-4170831.397923176</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="J99" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4125,10 +4361,14 @@
         <v>-4496712.659223177</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4162,10 +4402,14 @@
         <v>-4494820.320723177</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="J101" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4199,10 +4443,14 @@
         <v>-4494820.320723177</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="J102" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4236,10 +4484,14 @@
         <v>-4472734.686723177</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="J103" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4273,10 +4525,14 @@
         <v>-4472734.686723177</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="J104" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4310,10 +4566,14 @@
         <v>-4357037.148523177</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="J105" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4347,10 +4607,14 @@
         <v>-4347027.148523177</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="J106" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4384,10 +4648,14 @@
         <v>-4325037.148523177</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="J107" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4424,7 +4692,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4461,7 +4731,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4498,7 +4770,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4535,7 +4809,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4572,7 +4848,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4609,7 +4887,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4646,7 +4926,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4683,7 +4965,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4720,7 +5004,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4757,7 +5043,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4794,7 +5082,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4831,7 +5121,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4868,7 +5160,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4905,7 +5199,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4942,7 +5238,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4979,7 +5277,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5016,7 +5316,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5053,7 +5355,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5090,7 +5394,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5127,7 +5433,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5164,7 +5472,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5201,7 +5511,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5238,7 +5550,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5275,7 +5589,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5312,7 +5628,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5349,7 +5667,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5386,7 +5706,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5423,7 +5745,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5460,7 +5784,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5494,10 +5820,14 @@
         <v>-3798478.011723178</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="J137" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5531,10 +5861,14 @@
         <v>-3794377.640123177</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J138" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5571,7 +5905,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5608,7 +5944,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5645,7 +5983,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5682,7 +6022,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5719,7 +6061,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5756,7 +6100,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5793,7 +6139,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5830,7 +6178,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5867,7 +6217,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5904,7 +6256,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5938,10 +6292,14 @@
         <v>-3449029.309181549</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J149" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5975,10 +6333,14 @@
         <v>-3449029.309181549</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J150" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6012,10 +6374,14 @@
         <v>-3453382.416981549</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J151" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6049,10 +6415,14 @@
         <v>-3446463.202881549</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J152" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6086,10 +6456,14 @@
         <v>-3451491.202881549</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J153" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6123,10 +6497,14 @@
         <v>-3441491.202881549</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="J154" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6160,10 +6538,14 @@
         <v>-3436481.202881549</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J155" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6197,10 +6579,14 @@
         <v>-3436481.202881549</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J156" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6234,10 +6620,14 @@
         <v>-3747579.768881549</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J157" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6271,10 +6661,14 @@
         <v>-3752690.768881549</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J158" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6308,10 +6702,14 @@
         <v>-3747690.768881549</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="J159" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6345,10 +6743,14 @@
         <v>-3747557.768881549</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="J160" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6382,10 +6784,14 @@
         <v>-3752557.768881549</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="J161" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6419,10 +6825,14 @@
         <v>-3746993.434881549</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="J162" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6456,10 +6866,14 @@
         <v>-3756993.434881549</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="J163" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6493,10 +6907,14 @@
         <v>-3756983.434881549</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J164" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6530,10 +6948,14 @@
         <v>-3911571.660281549</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="J165" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6567,10 +6989,14 @@
         <v>-3911505.816081549</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="J166" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6604,10 +7030,14 @@
         <v>-3968025.093981549</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="J167" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6641,10 +7071,14 @@
         <v>-3968025.093981549</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="J168" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6678,10 +7112,14 @@
         <v>-3968025.093981549</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="J169" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6715,10 +7153,14 @@
         <v>-3804870.214050397</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="J170" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6752,10 +7194,14 @@
         <v>-3717353.587481549</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="J171" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6789,10 +7235,14 @@
         <v>-3582386.587481549</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J172" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6826,10 +7276,14 @@
         <v>-3582386.587481549</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J173" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6866,7 +7320,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6900,10 +7356,14 @@
         <v>-3500878.832381548</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J175" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6937,10 +7397,14 @@
         <v>-3632264.892881548</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J176" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6974,10 +7438,14 @@
         <v>-3297069.977881548</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J177" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7011,10 +7479,14 @@
         <v>-3983780.196981548</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="J178" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7048,10 +7520,14 @@
         <v>-3882892.640881548</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J179" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7085,10 +7561,14 @@
         <v>-3862660.345181548</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="J180" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7122,10 +7602,14 @@
         <v>-3892660.345181548</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="J181" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7162,7 +7646,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7196,10 +7682,14 @@
         <v>-3963542.613081548</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J183" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7233,10 +7723,14 @@
         <v>-4074525.261981548</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J184" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7270,10 +7764,14 @@
         <v>-1572500.072381548</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="J185" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7310,7 +7808,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7347,7 +7847,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7384,7 +7886,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7418,10 +7922,14 @@
         <v>-2191773.731181548</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="J189" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7455,10 +7963,14 @@
         <v>-2189190.148681547</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="J190" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7495,7 +8007,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7532,7 +8046,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7569,7 +8085,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7606,7 +8124,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7643,7 +8163,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7680,7 +8202,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7717,7 +8241,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7751,10 +8277,14 @@
         <v>-2246105.853152585</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="J198" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7791,7 +8321,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7828,7 +8360,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7865,7 +8399,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7902,7 +8438,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7939,7 +8477,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7976,7 +8516,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8013,7 +8555,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8050,7 +8594,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8087,7 +8633,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8124,7 +8672,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8161,7 +8711,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8198,7 +8750,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8235,7 +8789,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8272,7 +8828,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8309,7 +8867,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8343,10 +8903,14 @@
         <v>-2894217.147652585</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J214" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8383,7 +8947,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8420,7 +8986,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8457,7 +9025,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8494,7 +9064,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8531,7 +9103,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8568,7 +9142,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8605,7 +9181,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8642,7 +9220,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8679,7 +9259,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8716,7 +9298,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8753,7 +9337,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8790,7 +9376,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8827,7 +9415,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8864,7 +9454,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8901,7 +9493,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8938,7 +9532,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8975,7 +9571,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9012,7 +9610,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9049,7 +9649,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9086,7 +9688,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9123,7 +9727,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9160,7 +9766,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9197,7 +9805,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9234,7 +9844,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9271,7 +9883,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9308,7 +9922,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9345,7 +9961,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9382,7 +10000,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9419,7 +10039,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9456,7 +10078,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9493,7 +10117,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9530,7 +10156,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9567,7 +10195,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9604,7 +10234,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9641,7 +10273,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9678,7 +10312,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9715,7 +10351,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9752,7 +10390,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9789,7 +10429,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9826,7 +10468,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9863,7 +10507,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9900,7 +10546,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9937,7 +10585,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9974,7 +10624,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10011,7 +10663,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10048,7 +10702,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10085,7 +10741,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10122,7 +10780,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10159,7 +10819,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10196,7 +10858,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10233,7 +10897,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10270,7 +10936,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10307,7 +10975,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10344,7 +11014,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10381,7 +11053,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10418,7 +11092,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10455,7 +11131,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10492,7 +11170,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10529,7 +11209,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10566,7 +11248,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10603,7 +11287,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10640,7 +11326,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10677,7 +11365,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10714,7 +11404,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10751,7 +11443,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10788,7 +11482,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10825,7 +11521,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10862,7 +11560,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10899,7 +11599,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10936,7 +11638,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10973,7 +11677,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11010,7 +11716,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11047,7 +11755,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11084,7 +11794,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11121,7 +11833,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11158,7 +11872,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11195,7 +11911,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11232,7 +11950,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11269,7 +11989,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11306,7 +12028,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11343,7 +12067,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11380,7 +12106,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11417,7 +12145,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11454,7 +12184,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11491,7 +12223,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11528,7 +12262,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11565,7 +12301,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11602,7 +12340,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11639,7 +12379,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11676,7 +12418,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11713,7 +12457,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11750,7 +12496,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11787,7 +12535,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11824,7 +12574,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11861,7 +12613,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11898,7 +12652,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11935,7 +12691,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11972,7 +12730,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12009,7 +12769,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12046,7 +12808,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12083,7 +12847,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12120,7 +12886,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12157,7 +12925,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12194,7 +12964,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12231,7 +13003,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12268,7 +13042,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12305,7 +13081,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12342,7 +13120,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12379,7 +13159,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12416,7 +13198,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12453,7 +13237,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12490,7 +13276,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12527,7 +13315,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12564,7 +13354,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12601,7 +13393,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12638,7 +13432,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12675,7 +13471,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12712,7 +13510,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12749,7 +13549,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12786,7 +13588,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12823,7 +13627,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12860,7 +13666,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12897,7 +13705,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12934,7 +13744,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12971,7 +13783,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13008,7 +13822,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13045,7 +13861,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13082,7 +13900,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13119,7 +13939,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13156,7 +13978,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13193,7 +14017,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13230,7 +14056,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13267,7 +14095,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13304,7 +14134,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13341,7 +14173,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13378,7 +14212,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13415,7 +14251,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13452,7 +14290,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13489,7 +14329,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13526,7 +14368,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13563,7 +14407,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13600,7 +14446,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13637,7 +14485,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13674,7 +14524,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13711,7 +14563,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13748,7 +14602,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13785,7 +14641,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13822,7 +14680,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13859,7 +14719,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13896,7 +14758,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13933,7 +14797,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13970,7 +14836,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14007,7 +14875,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14044,7 +14914,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14081,7 +14953,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14118,7 +14992,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14155,7 +15031,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14192,7 +15070,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14229,7 +15109,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14266,7 +15148,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14303,7 +15187,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14340,7 +15226,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14377,7 +15265,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14414,7 +15304,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14451,7 +15343,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14488,7 +15382,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14525,7 +15421,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14562,7 +15460,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14599,7 +15499,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14636,7 +15538,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14673,7 +15577,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14710,7 +15616,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14747,7 +15655,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14784,7 +15694,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14821,7 +15733,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14858,7 +15772,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14895,7 +15811,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14932,7 +15850,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14969,7 +15889,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15006,7 +15928,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15043,7 +15967,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15080,7 +16006,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15117,7 +16045,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15154,7 +16084,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15191,7 +16123,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15228,7 +16162,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15265,7 +16201,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15302,7 +16240,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15339,7 +16279,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15376,7 +16318,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15413,7 +16357,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15450,7 +16396,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15484,19 +16432,23 @@
         <v>1934508.40876582</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L407" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" t="inlineStr"/>
+        <v>1.063100358422939</v>
+      </c>
+      <c r="M407" t="n">
+        <v>1.004778972520908</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -15521,15 +16473,11 @@
         <v>1934508.40876582</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15558,15 +16506,11 @@
         <v>1934508.40876582</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15595,15 +16539,11 @@
         <v>1934508.40876582</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15632,15 +16572,11 @@
         <v>1935508.40876582</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15669,15 +16605,11 @@
         <v>1932508.40876582</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15710,11 +16642,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15747,11 +16675,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15784,11 +16708,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15821,11 +16741,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15858,11 +16774,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15895,11 +16807,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15928,15 +16836,11 @@
         <v>2283679.97676582</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15969,11 +16873,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16006,11 +16906,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16043,11 +16939,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16080,11 +16972,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16117,11 +17005,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16154,11 +17038,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16191,11 +17071,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16228,11 +17104,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16265,11 +17137,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16302,11 +17170,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16339,11 +17203,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16376,11 +17236,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16413,11 +17269,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16450,11 +17302,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16487,11 +17335,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16524,11 +17368,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16561,11 +17401,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16598,11 +17434,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16631,15 +17463,11 @@
         <v>4914341.14666582</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16668,15 +17496,11 @@
         <v>4914341.14666582</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16705,15 +17529,11 @@
         <v>5059115.27606582</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16742,15 +17562,11 @@
         <v>5473068.529968113</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16779,15 +17595,11 @@
         <v>6015755.35356582</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16816,15 +17628,11 @@
         <v>6015755.35356582</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16853,15 +17661,11 @@
         <v>5904576.727365821</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16894,11 +17698,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16927,15 +17727,11 @@
         <v>5907086.727365821</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16964,16 +17760,14 @@
         <v>5783980.224165821</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="n">
+        <v>1</v>
+      </c>
       <c r="M447" t="inlineStr"/>
     </row>
     <row r="448">
@@ -16999,7 +17793,7 @@
         <v>5814300.142765821</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17065,7 +17859,7 @@
         <v>5598754.236165821</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17098,7 +17892,7 @@
         <v>5791532.86626582</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17230,7 +18024,7 @@
         <v>5898423.500965821</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17263,7 +18057,7 @@
         <v>5805043.336565821</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17329,7 +18123,7 @@
         <v>4797605.01366582</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17362,7 +18156,7 @@
         <v>4797605.01366582</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17395,7 +18189,7 @@
         <v>4800293.01366582</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17428,7 +18222,7 @@
         <v>4740293.01366582</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17461,7 +18255,7 @@
         <v>4795365.592565821</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17494,7 +18288,7 @@
         <v>4802904.55626219</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17527,7 +18321,7 @@
         <v>4787966.135162191</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17560,7 +18354,7 @@
         <v>4799654.791458666</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17593,7 +18387,7 @@
         <v>4799654.791458666</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17626,7 +18420,7 @@
         <v>7002801.642286344</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17659,7 +18453,7 @@
         <v>7333932.444886344</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17692,7 +18486,7 @@
         <v>7285847.785986343</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17725,7 +18519,7 @@
         <v>7407630.751127956</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18253,7 +19047,7 @@
         <v>7112410.805227955</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18286,7 +19080,7 @@
         <v>7105967.355527955</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18319,7 +19113,7 @@
         <v>7085967.355527955</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18352,7 +19146,7 @@
         <v>6854603.448027955</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18385,7 +19179,7 @@
         <v>7015752.567827955</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18418,7 +19212,7 @@
         <v>6754077.652327955</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18451,7 +19245,7 @@
         <v>6754077.652327955</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18484,7 +19278,7 @@
         <v>6796062.614927955</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18517,7 +19311,7 @@
         <v>6773373.734027955</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18550,7 +19344,7 @@
         <v>5981776.401927955</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18583,7 +19377,7 @@
         <v>5923819.460127954</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18616,7 +19410,7 @@
         <v>5922761.219627954</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18649,7 +19443,7 @@
         <v>5882123.403327954</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18682,7 +19476,7 @@
         <v>6290333.679827954</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18715,7 +19509,7 @@
         <v>6441099.457427953</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19408,7 +20202,7 @@
         <v>6006486.001927954</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19441,7 +20235,7 @@
         <v>5533188.668927955</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19474,7 +20268,7 @@
         <v>5533188.668927955</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19507,7 +20301,7 @@
         <v>5534159.333327955</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19540,7 +20334,7 @@
         <v>5534170.333327955</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19573,7 +20367,7 @@
         <v>5518170.333327955</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19606,7 +20400,7 @@
         <v>5412497.239127954</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19639,7 +20433,7 @@
         <v>5889739.191427954</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19672,7 +20466,7 @@
         <v>5796703.026627954</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19705,7 +20499,7 @@
         <v>5793403.395727954</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19738,7 +20532,7 @@
         <v>5793403.395727954</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19771,7 +20565,7 @@
         <v>5793403.395727954</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19804,7 +20598,7 @@
         <v>5802403.395727954</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19837,7 +20631,7 @@
         <v>5804413.395727954</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19870,7 +20664,7 @@
         <v>5802925.395727954</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19903,7 +20697,7 @@
         <v>5914429.046127954</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19936,7 +20730,7 @@
         <v>5914429.046127954</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19969,7 +20763,7 @@
         <v>5914429.046127954</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20101,7 +20895,7 @@
         <v>5913642.910727954</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21355,7 +22149,7 @@
         <v>5911429.675627953</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21388,7 +22182,7 @@
         <v>5822492.245527953</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21421,7 +22215,7 @@
         <v>5810452.657327953</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21454,7 +22248,7 @@
         <v>5860966.572727953</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21487,7 +22281,7 @@
         <v>5861429.097727953</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21520,7 +22314,7 @@
         <v>5861429.097727953</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21553,7 +22347,7 @@
         <v>5679491.693327953</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21586,7 +22380,7 @@
         <v>5679491.693327953</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21619,7 +22413,7 @@
         <v>5465991.024527953</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21652,7 +22446,7 @@
         <v>5498606.773933475</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21685,7 +22479,7 @@
         <v>5499123.284733475</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21718,7 +22512,7 @@
         <v>5337126.529133475</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21751,7 +22545,7 @@
         <v>5195559.242833476</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21784,7 +22578,7 @@
         <v>5216569.242833476</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21817,7 +22611,7 @@
         <v>5140855.915133475</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21850,7 +22644,7 @@
         <v>5141253.655533475</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21883,7 +22677,7 @@
         <v>5141253.655533475</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21916,7 +22710,7 @@
         <v>5125843.660833475</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21949,7 +22743,7 @@
         <v>5140752.889333475</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21982,7 +22776,7 @@
         <v>4822445.257933475</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22015,7 +22809,7 @@
         <v>4822616.055633475</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22048,7 +22842,7 @@
         <v>4822576.105633475</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22081,7 +22875,7 @@
         <v>4822576.105633475</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22114,7 +22908,7 @@
         <v>4822576.105633475</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22147,7 +22941,7 @@
         <v>4822576.105633475</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22180,7 +22974,7 @@
         <v>4822737.818933475</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22213,7 +23007,7 @@
         <v>4721144.454533475</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22246,7 +23040,7 @@
         <v>4760391.006033475</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22279,7 +23073,7 @@
         <v>4760391.006033475</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22345,7 +23139,7 @@
         <v>4834321.620533475</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22807,7 +23601,7 @@
         <v>5003688.393333474</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -26052,6 +26846,6 @@
       <c r="M722" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest MIX.xlsx
+++ b/BackTest/2019-10-26 BackTest MIX.xlsx
@@ -616,11 +616,17 @@
         <v>-1803453.803772845</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.34</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +659,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +696,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +733,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +770,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +807,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +844,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +877,17 @@
         <v>-1921782.960272845</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8.34</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +920,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +957,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +994,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1031,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1068,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1105,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1138,17 @@
         <v>-2021276.163072845</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1177,17 @@
         <v>-2182170.499472845</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8.34</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1216,17 @@
         <v>-2651743.712572845</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8.33</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1255,17 @@
         <v>-2651143.712572845</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8.32</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1294,17 @@
         <v>-2651163.712572845</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8.369999999999999</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1333,17 @@
         <v>-2578520.629972845</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8.33</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1372,17 @@
         <v>-2495007.417975348</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8.359999999999999</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1411,17 @@
         <v>-2459252.950426774</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8.390000000000001</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1450,17 @@
         <v>-1984532.301626774</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8.4</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1489,17 @@
         <v>-1983355.805156186</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8.470000000000001</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1532,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1569,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1606,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1643,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1680,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1717,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1754,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1791,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1828,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1865,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1902,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1939,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1976,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2013,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2050,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2087,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2124,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2161,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2198,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2235,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2272,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2309,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2346,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2383,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2420,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2457,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2494,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2531,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2568,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2605,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2642,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2679,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2716,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2753,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2790,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2827,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2864,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2901,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2934,17 @@
         <v>-3626427.25676884</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8.42</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2973,17 @@
         <v>-4074224.54506884</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>8.42</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3012,17 @@
         <v>-3916194.468168841</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8.390000000000001</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2766,10 +3056,12 @@
       <c r="I72" t="n">
         <v>8.41</v>
       </c>
-      <c r="J72" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,15 +3090,15 @@
         <v>-3911173.468168841</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>8.41</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2837,15 +3129,15 @@
         <v>-3847030.577468841</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>8.41</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -2876,11 +3168,17 @@
         <v>-3847030.577468841</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>8.51</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2909,11 +3207,17 @@
         <v>-3847008.577468841</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>8.51</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2942,11 +3246,17 @@
         <v>-3751346.211368841</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>8.539999999999999</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2975,11 +3285,17 @@
         <v>-4118440.63636884</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>8.56</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3012,7 +3328,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3045,7 +3365,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3078,7 +3402,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3111,7 +3439,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3144,7 +3476,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3177,7 +3513,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3210,7 +3550,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3243,7 +3587,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3276,7 +3624,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3309,7 +3661,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3342,7 +3698,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3375,7 +3735,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3408,7 +3772,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3441,7 +3809,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3474,7 +3846,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3507,7 +3883,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3540,7 +3920,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3573,7 +3957,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3606,7 +3994,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3639,7 +4031,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3672,7 +4068,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3701,15 +4101,13 @@
         <v>-4496712.659223177</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3777,11 +4175,9 @@
         <v>-4494820.320723177</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>8.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -3816,11 +4212,9 @@
         <v>-4472734.686723177</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>8.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -3855,11 +4249,9 @@
         <v>-4472734.686723177</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>8.550000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -3894,11 +4286,9 @@
         <v>-4357037.148523177</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>8.550000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -3933,11 +4323,9 @@
         <v>-4347027.148523177</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>8.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -3972,11 +4360,9 @@
         <v>-4325037.148523177</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>8.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4272,16 +4658,18 @@
         <v>-3231380.604223177</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
       <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -4307,11 +4695,15 @@
         <v>-2806224.861423177</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4340,11 +4732,15 @@
         <v>-2825647.284923177</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4373,11 +4769,15 @@
         <v>-3154515.589823177</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4406,11 +4806,15 @@
         <v>-3080873.554123177</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4439,11 +4843,15 @@
         <v>-3883644.492923177</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4472,11 +4880,15 @@
         <v>-3962861.720123177</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4505,11 +4917,15 @@
         <v>-4128191.028523177</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4538,11 +4954,15 @@
         <v>-4127738.328623177</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4575,7 +4995,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4608,7 +5032,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4641,7 +5069,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4674,7 +5106,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4707,7 +5143,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4740,7 +5180,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4773,7 +5217,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4806,7 +5254,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4839,7 +5291,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4872,7 +5328,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4905,7 +5365,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4938,7 +5402,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4971,7 +5439,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5004,7 +5476,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5037,7 +5513,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5070,7 +5550,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5103,7 +5587,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5136,7 +5624,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5169,7 +5661,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5202,7 +5698,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5235,7 +5735,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5268,7 +5772,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5301,7 +5809,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5334,7 +5846,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5367,7 +5883,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5400,7 +5920,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5433,7 +5957,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5466,7 +5994,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5499,7 +6031,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5532,7 +6068,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5565,7 +6105,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5598,7 +6142,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5631,7 +6179,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5664,7 +6216,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5697,7 +6253,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5730,7 +6290,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5763,7 +6327,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5796,7 +6364,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5829,7 +6401,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5862,7 +6438,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5895,7 +6475,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5928,7 +6512,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5961,7 +6549,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5994,7 +6586,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6027,7 +6623,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6060,7 +6660,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6697,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6126,7 +6734,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6159,7 +6771,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6192,7 +6808,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6225,7 +6845,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6258,7 +6882,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6291,7 +6919,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6324,7 +6956,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6357,7 +6993,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6390,7 +7030,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6423,7 +7067,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6456,7 +7104,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6489,7 +7141,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6522,7 +7178,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6555,7 +7215,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6588,7 +7252,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6621,7 +7289,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6654,7 +7326,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6687,7 +7363,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6720,7 +7400,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6753,7 +7437,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6786,7 +7474,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6819,7 +7511,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6852,7 +7548,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6885,7 +7585,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6918,7 +7622,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6951,7 +7659,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6984,7 +7696,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7017,7 +7733,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7050,7 +7770,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7083,7 +7807,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7116,7 +7844,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7145,15 +7877,15 @@
         <v>-2301315.711352585</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="J202" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7185,12 +7917,10 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>8.710000000000001</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7224,12 +7954,10 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>8.710000000000001</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -7264,7 +7992,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7297,7 +8029,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7330,7 +8066,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7363,7 +8103,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7396,7 +8140,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7429,7 +8177,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7462,7 +8214,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7495,7 +8251,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7528,7 +8288,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7561,7 +8325,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7594,7 +8362,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7627,7 +8399,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7660,7 +8436,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7693,7 +8473,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7726,7 +8510,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7759,7 +8547,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7792,7 +8584,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7825,7 +8621,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7858,7 +8658,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7891,7 +8695,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7924,7 +8732,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7957,7 +8769,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7990,7 +8806,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8023,7 +8843,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8056,7 +8880,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8089,7 +8917,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8122,7 +8954,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8155,7 +8991,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8188,7 +9028,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8221,7 +9065,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8254,7 +9102,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8287,7 +9139,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8320,7 +9176,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8353,7 +9213,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8386,7 +9250,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8419,7 +9287,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8452,7 +9324,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8485,7 +9361,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8518,7 +9398,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8551,7 +9435,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8584,7 +9472,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8617,7 +9509,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8650,7 +9546,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8683,7 +9583,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8716,7 +9620,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8749,7 +9657,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8782,7 +9694,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8815,7 +9731,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8848,7 +9768,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8881,7 +9805,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8914,7 +9842,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8947,7 +9879,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8980,7 +9916,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9013,7 +9953,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9046,7 +9990,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9079,7 +10027,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9112,7 +10064,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9145,7 +10101,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9178,7 +10138,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9211,7 +10175,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9244,7 +10212,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9277,7 +10249,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9310,7 +10286,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9343,7 +10323,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9376,7 +10360,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9409,7 +10397,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9442,7 +10434,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9475,7 +10471,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9508,7 +10508,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9541,7 +10545,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9574,7 +10582,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9607,7 +10619,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9640,7 +10656,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9673,7 +10693,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9706,7 +10730,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9739,7 +10767,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9772,7 +10804,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9805,7 +10841,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9838,7 +10878,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9871,7 +10915,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9904,7 +10952,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9937,7 +10989,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9970,7 +11026,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10003,7 +11063,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10036,7 +11100,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10069,7 +11137,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10102,7 +11174,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10135,7 +11211,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10168,7 +11248,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10201,7 +11285,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10234,7 +11322,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10267,7 +11359,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10300,7 +11396,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10333,7 +11433,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10366,7 +11470,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10399,7 +11507,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10432,7 +11544,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10465,7 +11581,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10498,7 +11618,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10531,7 +11655,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10564,7 +11692,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10597,7 +11729,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10630,7 +11766,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10663,7 +11803,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10696,7 +11840,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10729,7 +11877,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10762,7 +11914,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10795,7 +11951,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10828,7 +11988,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10861,7 +12025,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10894,7 +12062,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10927,7 +12099,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10960,7 +12136,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10993,7 +12173,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11026,7 +12210,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11059,7 +12247,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11092,7 +12284,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11125,7 +12321,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11158,7 +12358,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11191,7 +12395,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11224,7 +12432,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11257,7 +12469,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11290,7 +12506,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11323,7 +12543,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11356,7 +12580,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11389,7 +12617,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11422,7 +12654,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11455,7 +12691,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11488,7 +12728,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11521,7 +12765,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11554,7 +12802,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11587,7 +12839,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11620,7 +12876,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11653,7 +12913,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11686,7 +12950,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11719,7 +12987,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11752,7 +13024,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11785,7 +13061,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11818,7 +13098,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11851,7 +13135,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11884,7 +13172,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11917,7 +13209,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11950,7 +13246,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11983,7 +13283,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12016,7 +13320,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12049,7 +13357,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12082,7 +13394,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12115,7 +13431,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12148,7 +13468,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12181,7 +13505,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12214,7 +13542,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12247,7 +13579,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12280,7 +13616,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12313,7 +13653,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12346,7 +13690,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12379,7 +13727,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12412,7 +13764,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12445,7 +13801,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12478,7 +13838,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12511,7 +13875,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12544,7 +13912,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12577,7 +13949,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12610,7 +13986,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12643,7 +14023,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12676,7 +14060,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12709,7 +14097,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12742,7 +14134,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12775,7 +14171,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12808,7 +14208,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12841,7 +14245,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12874,7 +14282,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12907,7 +14319,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12940,7 +14356,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12973,7 +14393,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13006,7 +14430,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13039,7 +14467,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13072,7 +14504,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13105,7 +14541,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13138,7 +14578,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13171,7 +14615,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13204,7 +14652,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13237,7 +14689,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13270,7 +14726,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13303,7 +14763,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13336,7 +14800,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13369,7 +14837,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13402,7 +14874,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13435,7 +14911,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13468,7 +14948,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13501,7 +14985,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13534,7 +15022,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13567,7 +15059,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13600,7 +15096,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13633,7 +15133,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13666,7 +15170,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13699,7 +15207,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13732,7 +15244,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13765,7 +15281,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13798,7 +15318,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13831,7 +15355,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13864,7 +15392,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13897,7 +15429,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13930,7 +15466,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13963,7 +15503,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13996,7 +15540,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14029,7 +15577,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14062,7 +15614,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14095,7 +15651,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14128,7 +15688,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14161,7 +15725,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14194,7 +15762,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14227,7 +15799,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14260,7 +15836,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14293,7 +15873,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14326,7 +15910,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14359,7 +15947,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14392,7 +15984,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14425,7 +16021,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14458,7 +16058,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14491,7 +16095,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14524,7 +16132,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14557,7 +16169,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14590,7 +16206,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14623,7 +16243,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14656,7 +16280,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14689,7 +16317,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14722,7 +16354,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14755,7 +16391,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14788,7 +16428,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14821,7 +16465,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14854,7 +16502,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14887,7 +16539,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14920,7 +16576,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14953,7 +16613,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14986,7 +16650,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15019,7 +16687,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15052,7 +16724,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15081,14 +16757,16 @@
         <v>6015755.35356582</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="n">
-        <v>1</v>
-      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="inlineStr"/>
     </row>
     <row r="443">
@@ -15114,7 +16792,7 @@
         <v>6015755.35356582</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15147,7 +16825,7 @@
         <v>5904576.727365821</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15180,7 +16858,7 @@
         <v>5907086.727365821</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15213,7 +16891,7 @@
         <v>5907086.727365821</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15246,7 +16924,7 @@
         <v>5783980.224165821</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15279,7 +16957,7 @@
         <v>5814300.142765821</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15312,7 +16990,7 @@
         <v>4524544.409765821</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15345,7 +17023,7 @@
         <v>5598754.236165821</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15411,7 +17089,7 @@
         <v>5736399.250865821</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15444,7 +17122,7 @@
         <v>5900668.616165821</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15477,7 +17155,7 @@
         <v>5900668.616165821</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15510,7 +17188,7 @@
         <v>5898423.500965821</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15543,7 +17221,7 @@
         <v>5805043.336565821</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15576,7 +17254,7 @@
         <v>5492974.39876582</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15609,7 +17287,7 @@
         <v>4797605.01366582</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15642,7 +17320,7 @@
         <v>4797605.01366582</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15708,7 +17386,7 @@
         <v>4740293.01366582</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15741,7 +17419,7 @@
         <v>4795365.592565821</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15774,7 +17452,7 @@
         <v>4802904.55626219</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15807,7 +17485,7 @@
         <v>4787966.135162191</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15840,7 +17518,7 @@
         <v>4799654.791458666</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15873,7 +17551,7 @@
         <v>4799654.791458666</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15906,7 +17584,7 @@
         <v>7002801.642286344</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15939,7 +17617,7 @@
         <v>7333932.444886344</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15972,7 +17650,7 @@
         <v>7285847.785986343</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16005,7 +17683,7 @@
         <v>7407630.751127956</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16038,7 +17716,7 @@
         <v>7123920.227827955</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16071,7 +17749,7 @@
         <v>7123920.227827955</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16104,7 +17782,7 @@
         <v>7123920.227827955</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16137,7 +17815,7 @@
         <v>7123920.227827955</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16170,7 +17848,7 @@
         <v>7205513.448027955</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16203,7 +17881,7 @@
         <v>7132583.584127955</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16236,7 +17914,7 @@
         <v>7132752.538327955</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16269,7 +17947,7 @@
         <v>7076255.363227955</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16302,7 +17980,7 @@
         <v>7076296.363227955</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16335,7 +18013,7 @@
         <v>7067273.502627955</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16368,7 +18046,7 @@
         <v>7117416.269227955</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16401,7 +18079,7 @@
         <v>7117516.269227955</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16434,7 +18112,7 @@
         <v>7096322.805227955</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16467,7 +18145,7 @@
         <v>7112410.805227955</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16500,7 +18178,7 @@
         <v>7112410.805227955</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16533,7 +18211,7 @@
         <v>7112410.805227955</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16566,7 +18244,7 @@
         <v>7105967.355527955</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16599,7 +18277,7 @@
         <v>7085967.355527955</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16632,7 +18310,7 @@
         <v>6854603.448027955</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16665,7 +18343,7 @@
         <v>7015752.567827955</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16731,7 +18409,7 @@
         <v>6754077.652327955</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17094,7 +18772,7 @@
         <v>6576392.950427953</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
